--- a/Document/Design.xlsx
+++ b/Document/Design.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pou\GitHub\RoomForRent\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -16,6 +21,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Login user with password</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +353,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/Design.xlsx
+++ b/Document/Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Function</t>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>Login user with password</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>See all flat, apartment</t>
+  </si>
+  <si>
+    <t>Post ad</t>
+  </si>
+  <si>
+    <t>Show your room for customer</t>
   </si>
 </sst>
 </file>
@@ -353,13 +365,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -375,6 +390,22 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Design.xlsx
+++ b/Document/Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Function</t>
   </si>
@@ -48,6 +48,30 @@
   </si>
   <si>
     <t>Show your room for customer</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t>Modified apartment information</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Check in</t>
+  </si>
+  <si>
+    <t>Reserve room</t>
+  </si>
+  <si>
+    <t>Categorize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms will be categorize by their size and persons that can be accommodated </t>
   </si>
 </sst>
 </file>
@@ -365,26 +389,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -392,7 +420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -400,7 +428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -408,7 +436,41 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/Design.xlsx
+++ b/Document/Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Function</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t xml:space="preserve">The rooms will be categorize by their size and persons that can be accommodated </t>
+  </si>
+  <si>
+    <t>How to access</t>
+  </si>
+  <si>
+    <t>User profile-&gt;Edit your ads</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -399,9 +405,10 @@
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +418,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -420,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -428,7 +438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -436,18 +446,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -458,7 +468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>

--- a/Document/Design.xlsx
+++ b/Document/Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Function</t>
   </si>
@@ -50,18 +50,12 @@
     <t>Show your room for customer</t>
   </si>
   <si>
-    <t>Missing</t>
-  </si>
-  <si>
     <t>Modify</t>
   </si>
   <si>
     <t>Modified apartment information</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Check in</t>
   </si>
   <si>
@@ -78,6 +72,15 @@
   </si>
   <si>
     <t>User profile-&gt;Edit your ads</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Not check</t>
+  </si>
+  <si>
+    <t>Checked</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,10 +419,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -429,6 +432,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -437,6 +443,9 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -445,38 +454,44 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
